--- a/MercuryTours/Resources/datapool/proveedores.xlsx
+++ b/MercuryTours/Resources/datapool/proveedores.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -55,21 +56,9 @@
     <t>07</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
     <t>bancolombia</t>
   </si>
   <si>
-    <t>Sumset</t>
-  </si>
-  <si>
     <t>davivienda</t>
   </si>
   <si>
@@ -137,6 +126,18 @@
   </si>
   <si>
     <t>362</t>
+  </si>
+  <si>
+    <t>Servientrega</t>
+  </si>
+  <si>
+    <t>dimonex</t>
+  </si>
+  <si>
+    <t>banco caja social</t>
+  </si>
+  <si>
+    <t>epa</t>
   </si>
 </sst>
 </file>
@@ -482,7 +483,7 @@
   <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,25 +524,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -549,25 +550,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -575,25 +576,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -627,25 +628,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
